--- a/Parameter/tblCallParameter.xlsx
+++ b/Parameter/tblCallParameter.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>ggplot(table,aes(x=product_id,y=cbk_blocked)) + geom_col()</t>
+          <t>ggplot(table,aes(x=notification_id_count)) + geom_bar(stat="count")</t>
         </is>
       </c>
     </row>
